--- a/OWS/Zadanie03/Testy/tabelki.xlsx
+++ b/OWS/Zadanie03/Testy/tabelki.xlsx
@@ -9,14 +9,14 @@
   <sheets>
     <sheet name="Sito Domenowe" sheetId="1" r:id="rId1"/>
     <sheet name="Sito Funkcyjne" sheetId="2" r:id="rId2"/>
-    <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
+    <sheet name="Dzielenie" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="62">
   <si>
     <t>Czas pracy procesorów</t>
   </si>
@@ -181,6 +181,27 @@
   </si>
   <si>
     <t>Względny procentowy koszt zrównoleglenia</t>
+  </si>
+  <si>
+    <t>Dzielenie &lt;2, 60000000&gt;</t>
+  </si>
+  <si>
+    <t>Static 2P</t>
+  </si>
+  <si>
+    <t>Dynamic 2P</t>
+  </si>
+  <si>
+    <t>Static 4P</t>
+  </si>
+  <si>
+    <t>Dynamic 4P</t>
+  </si>
+  <si>
+    <t>Dzielenie &lt;2, 30000000&gt;</t>
+  </si>
+  <si>
+    <t>Dzielenie &lt;30000000, 60000000&gt;</t>
   </si>
 </sst>
 </file>
@@ -516,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M142"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O139" sqref="O139"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5164,8 +5185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="O140" sqref="O140"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8447,7 +8468,7 @@
         <v>0.9824312443654919</v>
       </c>
       <c r="D103">
-        <f t="shared" ref="D103:N103" si="41">D102/2</f>
+        <f t="shared" ref="D103:M103" si="41">D102/2</f>
         <v>0.74701331610027277</v>
       </c>
       <c r="E103">
@@ -9810,12 +9831,564 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>53.514964999999997</v>
+      </c>
+      <c r="C4">
+        <v>53.394907000000003</v>
+      </c>
+      <c r="D4">
+        <v>53.254134000000001</v>
+      </c>
+      <c r="E4">
+        <v>54.222887999999998</v>
+      </c>
+      <c r="F4">
+        <v>56.061537000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>53.541094000000001</v>
+      </c>
+      <c r="C5">
+        <v>33.544882999999999</v>
+      </c>
+      <c r="D5">
+        <v>26.628034</v>
+      </c>
+      <c r="E5">
+        <v>18.165392000000001</v>
+      </c>
+      <c r="F5">
+        <v>14.045322000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6">
+        <f>$B5/C5</f>
+        <v>1.5961031672103314</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:F6" si="0">$B5/D5</f>
+        <v>2.0107039821265063</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>2.9474229898259283</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>3.8120232487371952</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7">
+        <f>C6/2</f>
+        <v>0.7980515836051657</v>
+      </c>
+      <c r="D7">
+        <f>D6/2</f>
+        <v>1.0053519910632531</v>
+      </c>
+      <c r="E7">
+        <f>E6/4</f>
+        <v>0.73685574745648208</v>
+      </c>
+      <c r="F7">
+        <f>F6/4</f>
+        <v>0.95300581218429881</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <f>59999999/B5</f>
+        <v>1120634.5354093811</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:F8" si="1">59999999/C5</f>
+        <v>1788648.3312521914</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>2253264.3228561296</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>3302983.9928585081</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>4271884.9023183659</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9">
+        <f>(C10/C5)*100</f>
+        <v>40.825478508898044</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9:F9" si="2">(D10/D5)*100</f>
+        <v>7.2630221217178407E-3</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>101.50444317414127</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>0.85260416243928638</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10">
+        <f>(2*C5)-C4</f>
+        <v>13.694858999999994</v>
+      </c>
+      <c r="D10">
+        <f>(2*D5)-D4</f>
+        <v>1.933999999998548E-3</v>
+      </c>
+      <c r="E10">
+        <f>(4*E5)-E4</f>
+        <v>18.438680000000005</v>
+      </c>
+      <c r="F10">
+        <f>(4*F5)-F4</f>
+        <v>0.11975100000000083</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>19.453053000000001</v>
+      </c>
+      <c r="C16">
+        <v>19.526676999999999</v>
+      </c>
+      <c r="D16">
+        <v>20.011507999999999</v>
+      </c>
+      <c r="E16">
+        <v>20.218921999999999</v>
+      </c>
+      <c r="F16">
+        <v>21.075406999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>19.453543</v>
+      </c>
+      <c r="C17">
+        <v>12.218143</v>
+      </c>
+      <c r="D17">
+        <v>10.007332999999999</v>
+      </c>
+      <c r="E17">
+        <v>6.7555699999999996</v>
+      </c>
+      <c r="F17">
+        <v>5.2832530000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18">
+        <f>$B17/C17</f>
+        <v>1.5921849171351163</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D18:F18" si="3">$B17/D17</f>
+        <v>1.9439288169984952</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>2.8796301422381827</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>3.6821145987140875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19">
+        <f>C18/2</f>
+        <v>0.79609245856755817</v>
+      </c>
+      <c r="D19">
+        <f>D18/2</f>
+        <v>0.97196440849924759</v>
+      </c>
+      <c r="E19">
+        <f>E18/4</f>
+        <v>0.71990753555954567</v>
+      </c>
+      <c r="F19">
+        <f>F18/4</f>
+        <v>0.92052864967852188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <f>29999999/B17</f>
+        <v>1542135.4865794885</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ref="C20:F20" si="4">29999999/C17</f>
+        <v>2455364.861910685</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="4"/>
+        <v>2997801.6120778634</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="4"/>
+        <v>4440779.8305694414</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="4"/>
+        <v>5678319.5883293869</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21">
+        <f>(C22/C17)*100</f>
+        <v>40.182939420499494</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21:F21" si="5">(D22/D17)*100</f>
+        <v>3.1556859355026022E-2</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="5"/>
+        <v>100.70738664539039</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="5"/>
+        <v>1.0903320359634934</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22">
+        <f>(2*C17)-C16</f>
+        <v>4.9096089999999997</v>
+      </c>
+      <c r="D22">
+        <f>(2*D17)-D16</f>
+        <v>3.157999999999106E-3</v>
+      </c>
+      <c r="E22">
+        <f>(4*E17)-E16</f>
+        <v>6.8033579999999994</v>
+      </c>
+      <c r="F22">
+        <f>(4*F17)-F16</f>
+        <v>5.7605000000002349E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>33.452007000000002</v>
+      </c>
+      <c r="C28">
+        <v>32.94529</v>
+      </c>
+      <c r="D28">
+        <v>33.304583000000001</v>
+      </c>
+      <c r="E28">
+        <v>34.353786999999997</v>
+      </c>
+      <c r="F28">
+        <v>34.977938999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>33.453254000000001</v>
+      </c>
+      <c r="C29">
+        <v>17.648728999999999</v>
+      </c>
+      <c r="D29">
+        <v>16.653236</v>
+      </c>
+      <c r="E29">
+        <v>9.47133</v>
+      </c>
+      <c r="F29">
+        <v>8.7621710000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30">
+        <f>$B29/C29</f>
+        <v>1.895504996422122</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ref="D30:F30" si="6">$B29/D29</f>
+        <v>2.0088140226920461</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="6"/>
+        <v>3.5320545266609864</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="6"/>
+        <v>3.8179184131421309</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31">
+        <f>C30/2</f>
+        <v>0.947752498211061</v>
+      </c>
+      <c r="D31">
+        <f>D30/2</f>
+        <v>1.0044070113460231</v>
+      </c>
+      <c r="E31">
+        <f>E30/4</f>
+        <v>0.8830136316652466</v>
+      </c>
+      <c r="F31">
+        <f>F30/4</f>
+        <v>0.95447960328553272</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32">
+        <f>30000001/B29</f>
+        <v>896773.77871820773</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ref="C32:F32" si="7">30000001/C29</f>
+        <v>1699839.1782207093</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="7"/>
+        <v>1801451.7418716699</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="7"/>
+        <v>3167453.8845125237</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="7"/>
+        <v>3423809.1221912922</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33">
+        <f>(C34/C29)*100</f>
+        <v>13.327690622933805</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ref="D33:F33" si="8">(D34/D29)*100</f>
+        <v>1.1343140756538099E-2</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="8"/>
+        <v>37.286558487561969</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="8"/>
+        <v>0.80739122758506177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34">
+        <f>(2*C29)-C28</f>
+        <v>2.3521679999999989</v>
+      </c>
+      <c r="D34">
+        <f>(2*D29)-D28</f>
+        <v>1.8889999999984752E-3</v>
+      </c>
+      <c r="E34">
+        <f>(4*E29)-E28</f>
+        <v>3.5315330000000031</v>
+      </c>
+      <c r="F34">
+        <f>(4*F29)-F28</f>
+        <v>7.0745000000002278E-2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>

--- a/OWS/Zadanie03/Testy/tabelki.xlsx
+++ b/OWS/Zadanie03/Testy/tabelki.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="11295" windowHeight="5580" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="11295" windowHeight="5580" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sito Domenowe" sheetId="1" r:id="rId1"/>
     <sheet name="Sito Funkcyjne" sheetId="2" r:id="rId2"/>
     <sheet name="Dzielenie" sheetId="3" r:id="rId3"/>
+    <sheet name="Tabele" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="84">
   <si>
     <t>Czas pracy procesorów</t>
   </si>
@@ -203,12 +204,90 @@
   <si>
     <t>Dzielenie &lt;30000000, 60000000&gt;</t>
   </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>2_StB</t>
+  </si>
+  <si>
+    <t>2_C2</t>
+  </si>
+  <si>
+    <t>2_C32</t>
+  </si>
+  <si>
+    <t>2_C256</t>
+  </si>
+  <si>
+    <t>4_StB</t>
+  </si>
+  <si>
+    <t>4_C2</t>
+  </si>
+  <si>
+    <t>4_C32</t>
+  </si>
+  <si>
+    <t>4_C256</t>
+  </si>
+  <si>
+    <t>2_D1</t>
+  </si>
+  <si>
+    <t>2_D2</t>
+  </si>
+  <si>
+    <t>2_D32</t>
+  </si>
+  <si>
+    <t>2_D256</t>
+  </si>
+  <si>
+    <t>4_D1</t>
+  </si>
+  <si>
+    <t>4_D2</t>
+  </si>
+  <si>
+    <t>4_D32</t>
+  </si>
+  <si>
+    <t>4_D256</t>
+  </si>
+  <si>
+    <t>Rozmiar &lt;2, 500 000 000&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rozmiar </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="238"/>
+      </rPr>
+      <t>&lt;500 000 000, 1 000 000 000&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Funkcyjne Rozmiar &lt;2, 1 000 000 000&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funkcyjne &lt;2, 500 000 000&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funkcyjne &lt;500 000 000, 1 000 000 000&gt; </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +295,22 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -226,7 +321,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -234,13 +329,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -535,406 +650,471 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M142"/>
+  <dimension ref="A1:W142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F152" sqref="F152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="B3" t="s">
+    <row r="3" spans="1:23">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>14.733772</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>5.144037</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>5.5438270000000003</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>5.3166570000000002</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>5.302651</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>5.2392409999999998</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>5.4362620000000001</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>5.453398</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <v>5.4174629999999997</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="2">
         <v>5.3908849999999999</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="2">
         <v>5.3047399999999998</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="2">
         <v>5.3838489999999997</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>14.734521000000001</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>2.587081</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>2.8288829999999998</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>2.6812109999999998</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>2.6652740000000001</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>2.6248999999999998</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>2.7351830000000001</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>2.7493560000000001</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <v>2.7390979999999998</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="2">
         <v>2.716548</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="2">
         <v>2.6761509999999999</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="2">
         <v>2.7712889999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="2">
         <f>$B5/C5</f>
         <v>5.6954231429166695</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <f t="shared" ref="D6:M6" si="0">$B5/D5</f>
         <v>5.2086003556880938</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>5.4954723816961817</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <f t="shared" si="0"/>
         <v>5.5283325466725</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <f t="shared" si="0"/>
         <v>5.6133646996076045</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <f t="shared" si="0"/>
         <v>5.3870329700060289</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <f t="shared" si="0"/>
         <v>5.3592626782417412</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="2">
         <f t="shared" si="0"/>
         <v>5.3793332695653833</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="2">
         <f t="shared" si="0"/>
         <v>5.4239869864254198</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="2">
         <f t="shared" si="0"/>
         <v>5.5058630847063563</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="2">
         <f t="shared" si="0"/>
         <v>5.3168475030933262</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="2">
         <f>C6/2</f>
         <v>2.8477115714583348</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <f t="shared" ref="D7:M7" si="1">D6/2</f>
         <v>2.6043001778440469</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <f t="shared" si="1"/>
         <v>2.7477361908480908</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <f t="shared" si="1"/>
         <v>2.76416627333625</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <f t="shared" si="1"/>
         <v>2.8066823498038023</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <f t="shared" si="1"/>
         <v>2.6935164850030144</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <f t="shared" si="1"/>
         <v>2.6796313391208706</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="2">
         <f t="shared" si="1"/>
         <v>2.6896666347826916</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="2">
         <f t="shared" si="1"/>
         <v>2.7119934932127099</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="2">
         <f t="shared" si="1"/>
         <v>2.7529315423531782</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="2">
         <f t="shared" si="1"/>
         <v>2.6584237515466631</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <f>999999999/B5</f>
         <v>67867832.215244725</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <f t="shared" ref="C8:M8" si="2">999999999/C5</f>
         <v>386536022.25829035</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <f t="shared" si="2"/>
         <v>353496415.01610357</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <f t="shared" si="2"/>
         <v>372965797.54446781</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <f t="shared" si="2"/>
         <v>375195945.70764577</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <f t="shared" si="2"/>
         <v>380966893.59594655</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <f t="shared" si="2"/>
         <v>365606249.74636066</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <f t="shared" si="2"/>
         <v>363721540.24433357</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="2">
         <f t="shared" si="2"/>
         <v>365083687.76874727</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="2">
         <f t="shared" si="2"/>
         <v>368114238.73239124</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="2">
         <f t="shared" si="2"/>
         <v>373670992.03296077</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="2">
         <f t="shared" si="2"/>
         <v>360842914.25398076</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="2">
         <f>(C10/C5)*100</f>
         <v>1.1644397682175378</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <f t="shared" ref="D9:M9" si="3">(D10/D5)*100</f>
         <v>4.0277028070796614</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <f t="shared" si="3"/>
         <v>1.706877974169112</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <f t="shared" si="3"/>
         <v>1.0466841307873143</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <f t="shared" si="3"/>
         <v>0.40226294335021384</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <f t="shared" si="3"/>
         <v>1.2468635553818568</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <f t="shared" si="3"/>
         <v>1.6481677891113518</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="2">
         <f t="shared" si="3"/>
         <v>2.2172627631431929</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="2">
         <f t="shared" si="3"/>
         <v>1.5538470146671437</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="2">
         <f t="shared" si="3"/>
         <v>1.7772539740844258</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="2">
         <f t="shared" si="3"/>
         <v>5.7276234993896393</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="2">
         <f>(2*C5)-C4</f>
         <v>3.0124999999999957E-2</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <f t="shared" ref="D10:M10" si="4">(2*D5)-D4</f>
         <v>0.11393899999999935</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <f t="shared" si="4"/>
         <v>4.576499999999939E-2</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <f t="shared" si="4"/>
         <v>2.7897000000000283E-2</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <f t="shared" si="4"/>
         <v>1.0558999999999763E-2</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <f t="shared" si="4"/>
         <v>3.4104000000000134E-2</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="2">
         <f t="shared" si="4"/>
         <v>4.5314000000000298E-2</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="2">
         <f t="shared" si="4"/>
         <v>6.0732999999999926E-2</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="2">
         <f t="shared" si="4"/>
         <v>4.2210999999999999E-2</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="2">
         <f t="shared" si="4"/>
         <v>4.7562000000000104E-2</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="2">
         <f t="shared" si="4"/>
         <v>0.15872900000000012</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:23">
       <c r="B15" t="s">
         <v>3</v>
       </c>
@@ -971,8 +1151,16 @@
       <c r="M15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1012,8 +1200,16 @@
       <c r="M16">
         <v>2.7729059999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1053,8 +1249,16 @@
       <c r="M17">
         <v>1.3967240000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1105,8 +1309,16 @@
         <f t="shared" si="5"/>
         <v>5.1079619165991277</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1157,8 +1369,16 @@
         <f t="shared" si="6"/>
         <v>2.5539809582995638</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1210,8 +1430,16 @@
         <f t="shared" si="7"/>
         <v>357980530.87080908</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -1262,8 +1490,16 @@
         <f t="shared" si="8"/>
         <v>1.4707272159711067</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1314,13 +1550,21 @@
         <f t="shared" si="9"/>
         <v>2.0542000000000282E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:23">
       <c r="B27" t="s">
         <v>3</v>
       </c>
@@ -1357,8 +1601,16 @@
       <c r="M27" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -1398,8 +1650,16 @@
       <c r="M28">
         <v>3.1908500000000002</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -1439,8 +1699,16 @@
       <c r="M29">
         <v>1.6060570000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -1491,8 +1759,16 @@
         <f t="shared" si="10"/>
         <v>4.5976786627124691</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -1543,8 +1819,16 @@
         <f t="shared" si="11"/>
         <v>2.2988393313562345</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -1596,8 +1880,16 @@
         <f t="shared" si="12"/>
         <v>311321454.34439749</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -1648,8 +1940,16 @@
         <f t="shared" si="13"/>
         <v>1.3239878783878747</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -1700,13 +2000,21 @@
         <f t="shared" si="14"/>
         <v>2.126399999999995E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:23">
       <c r="B39" t="s">
         <v>3</v>
       </c>
@@ -1744,7 +2052,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:23">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -1785,7 +2093,7 @@
         <v>5.4029569999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:23">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -1826,7 +2134,7 @@
         <v>1.536878</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:23">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -1878,7 +2186,7 @@
         <v>9.5873068649560995</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:23">
       <c r="A43" t="s">
         <v>16</v>
       </c>
@@ -1930,7 +2238,7 @@
         <v>2.3968267162390249</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:23">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -1983,7 +2291,7 @@
         <v>650669733.70690453</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:23">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -2035,7 +2343,7 @@
         <v>48.445940406460373</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:23">
       <c r="A46" t="s">
         <v>18</v>
       </c>
@@ -5185,8 +5493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="K135" sqref="K135:K142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9833,8 +10141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9845,179 +10153,180 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="B3" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>53.514964999999997</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>53.394907000000003</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>53.254134000000001</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>54.222887999999998</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>56.061537000000001</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>53.541094000000001</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>33.544882999999999</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>26.628034</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>18.165392000000001</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>14.045322000000001</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="2">
         <f>$B5/C5</f>
         <v>1.5961031672103314</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <f t="shared" ref="D6:F6" si="0">$B5/D5</f>
         <v>2.0107039821265063</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>2.9474229898259283</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <f t="shared" si="0"/>
         <v>3.8120232487371952</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="2">
         <f>C6/2</f>
         <v>0.7980515836051657</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <f>D6/2</f>
         <v>1.0053519910632531</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <f>E6/4</f>
         <v>0.73685574745648208</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <f>F6/4</f>
         <v>0.95300581218429881</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <f>59999999/B5</f>
         <v>1120634.5354093811</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <f t="shared" ref="C8:F8" si="1">59999999/C5</f>
         <v>1788648.3312521914</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <f t="shared" si="1"/>
         <v>2253264.3228561296</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <f t="shared" si="1"/>
         <v>3302983.9928585081</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <f t="shared" si="1"/>
         <v>4271884.9023183659</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="2">
         <f>(C10/C5)*100</f>
         <v>40.825478508898044</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <f t="shared" ref="D9:F9" si="2">(D10/D5)*100</f>
         <v>7.2630221217178407E-3</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <f t="shared" si="2"/>
         <v>101.50444317414127</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <f t="shared" si="2"/>
         <v>0.85260416243928638</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="2">
         <f>(2*C5)-C4</f>
         <v>13.694858999999994</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <f>(2*D5)-D4</f>
         <v>1.933999999998548E-3</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <f>(4*E5)-E4</f>
         <v>18.438680000000005</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <f>(4*F5)-F4</f>
         <v>0.11975100000000083</v>
       </c>
@@ -10028,179 +10337,180 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="B15" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>19.453053000000001</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>19.526676999999999</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>20.011507999999999</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>20.218921999999999</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>21.075406999999998</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>19.453543</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>12.218143</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>10.007332999999999</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>6.7555699999999996</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>5.2832530000000002</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18">
+      <c r="B18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="2">
         <f>$B17/C17</f>
         <v>1.5921849171351163</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <f t="shared" ref="D18:F18" si="3">$B17/D17</f>
         <v>1.9439288169984952</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <f t="shared" si="3"/>
         <v>2.8796301422381827</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <f t="shared" si="3"/>
         <v>3.6821145987140875</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="2">
         <f>C18/2</f>
         <v>0.79609245856755817</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <f>D18/2</f>
         <v>0.97196440849924759</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <f>E18/4</f>
         <v>0.71990753555954567</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <f>F18/4</f>
         <v>0.92052864967852188</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <f>29999999/B17</f>
         <v>1542135.4865794885</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <f t="shared" ref="C20:F20" si="4">29999999/C17</f>
         <v>2455364.861910685</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <f t="shared" si="4"/>
         <v>2997801.6120778634</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <f t="shared" si="4"/>
         <v>4440779.8305694414</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <f t="shared" si="4"/>
         <v>5678319.5883293869</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21">
+      <c r="B21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="2">
         <f>(C22/C17)*100</f>
         <v>40.182939420499494</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <f t="shared" ref="D21:F21" si="5">(D22/D17)*100</f>
         <v>3.1556859355026022E-2</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <f t="shared" si="5"/>
         <v>100.70738664539039</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <f t="shared" si="5"/>
         <v>1.0903320359634934</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22">
+      <c r="B22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="2">
         <f>(2*C17)-C16</f>
         <v>4.9096089999999997</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <f>(2*D17)-D16</f>
         <v>3.157999999999106E-3</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <f>(4*E17)-E16</f>
         <v>6.8033579999999994</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="2">
         <f>(4*F17)-F16</f>
         <v>5.7605000000002349E-2</v>
       </c>
@@ -10211,179 +10521,180 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="B27" t="s">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>33.452007000000002</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>32.94529</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <v>33.304583000000001</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <v>34.353786999999997</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="2">
         <v>34.977938999999999</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>33.453254000000001</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>17.648728999999999</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <v>16.653236</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="2">
         <v>9.47133</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="2">
         <v>8.7621710000000004</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30">
+      <c r="B30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="2">
         <f>$B29/C29</f>
         <v>1.895504996422122</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <f t="shared" ref="D30:F30" si="6">$B29/D29</f>
         <v>2.0088140226920461</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2">
         <f t="shared" si="6"/>
         <v>3.5320545266609864</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="2">
         <f t="shared" si="6"/>
         <v>3.8179184131421309</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31">
+      <c r="B31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="2">
         <f>C30/2</f>
         <v>0.947752498211061</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <f>D30/2</f>
         <v>1.0044070113460231</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="2">
         <f>E30/4</f>
         <v>0.8830136316652466</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="2">
         <f>F30/4</f>
         <v>0.95447960328553272</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" t="s">
+      <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <f>30000001/B29</f>
         <v>896773.77871820773</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <f t="shared" ref="C32:F32" si="7">30000001/C29</f>
         <v>1699839.1782207093</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2">
         <f t="shared" si="7"/>
         <v>1801451.7418716699</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="2">
         <f t="shared" si="7"/>
         <v>3167453.8845125237</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="2">
         <f t="shared" si="7"/>
         <v>3423809.1221912922</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33">
+      <c r="B33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="2">
         <f>(C34/C29)*100</f>
         <v>13.327690622933805</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="2">
         <f t="shared" ref="D33:F33" si="8">(D34/D29)*100</f>
         <v>1.1343140756538099E-2</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="2">
         <f t="shared" si="8"/>
         <v>37.286558487561969</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="2">
         <f t="shared" si="8"/>
         <v>0.80739122758506177</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" t="s">
+      <c r="A34" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34">
+      <c r="B34" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="2">
         <f>(2*C29)-C28</f>
         <v>2.3521679999999989</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <f>(2*D29)-D28</f>
         <v>1.8889999999984752E-3</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="2">
         <f>(4*E29)-E28</f>
         <v>3.5315330000000031</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="2">
         <f>(4*F29)-F28</f>
         <v>7.0745000000002278E-2</v>
       </c>
@@ -10392,4 +10703,3597 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N116"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="G96" sqref="G96"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>14.733772</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5.144037</v>
+      </c>
+      <c r="D2" s="2">
+        <v>5.5438270000000003</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5.4362620000000001</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5.3908849999999999</v>
+      </c>
+      <c r="G2" s="2">
+        <v>5.4408010000000004</v>
+      </c>
+      <c r="H2" s="2">
+        <v>5.6968759999999996</v>
+      </c>
+      <c r="I2" s="2">
+        <v>5.4390549999999998</v>
+      </c>
+      <c r="J2" s="2">
+        <v>5.416372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>14.734521000000001</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2.587081</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2.8288829999999998</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2.7351830000000001</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2.716548</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1.400293</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1.772702</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1.6659809999999999</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1.5956950000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="2">
+        <f>$B3/C3</f>
+        <v>5.6954231429166695</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:F4" si="0">$B3/D3</f>
+        <v>5.2086003556880938</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>5.3870329700060289</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>5.4239869864254198</v>
+      </c>
+      <c r="G4" s="2">
+        <f>$B3/G3</f>
+        <v>10.52245565749454</v>
+      </c>
+      <c r="H4" s="2">
+        <f>$B3/H3</f>
+        <v>8.3118995747734257</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" ref="I4:J4" si="1">$B3/I3</f>
+        <v>8.8443511660697212</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="1"/>
+        <v>9.233920642729343</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="2">
+        <f>C4/2</f>
+        <v>2.8477115714583348</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" ref="D5:F5" si="2">D4/2</f>
+        <v>2.6043001778440469</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="2"/>
+        <v>2.6935164850030144</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="2"/>
+        <v>2.7119934932127099</v>
+      </c>
+      <c r="G5" s="2">
+        <f>G4/4</f>
+        <v>2.6306139143736349</v>
+      </c>
+      <c r="H5" s="2">
+        <f>H4/4</f>
+        <v>2.0779748936933564</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" ref="I5:J5" si="3">I4/4</f>
+        <v>2.2110877915174303</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="3"/>
+        <v>2.3084801606823357</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2">
+        <f>999999999/B3</f>
+        <v>67867832.215244725</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" ref="C6:F6" si="4">999999999/C3</f>
+        <v>386536022.25829035</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="4"/>
+        <v>353496415.01610357</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="4"/>
+        <v>365606249.74636066</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="4"/>
+        <v>368114238.73239124</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" ref="G6:J6" si="5">999999999/G3</f>
+        <v>714136255.05519199</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="5"/>
+        <v>564110605.73068678</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="5"/>
+        <v>600246940.99152398</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="5"/>
+        <v>626686176.86963987</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="2">
+        <f>(C8/C3)*100</f>
+        <v>1.1644397682175378</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:F7" si="6">(D8/D3)*100</f>
+        <v>4.0277028070796614</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="6"/>
+        <v>1.2468635553818568</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="6"/>
+        <v>1.5538470146671437</v>
+      </c>
+      <c r="G7" s="2">
+        <f>(G8/G3)*100</f>
+        <v>11.452674547398265</v>
+      </c>
+      <c r="H7" s="2">
+        <f>(H8/H3)*100</f>
+        <v>78.633182565371982</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" ref="I7:J7" si="7">(I8/I3)*100</f>
+        <v>73.522387110057082</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="7"/>
+        <v>60.563453542186963</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="2">
+        <f>(2*C3)-C2</f>
+        <v>3.0124999999999957E-2</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" ref="D8:F8" si="8">(2*D3)-D2</f>
+        <v>0.11393899999999935</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="8"/>
+        <v>3.4104000000000134E-2</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="8"/>
+        <v>4.2210999999999999E-2</v>
+      </c>
+      <c r="G8" s="2">
+        <f>(4*G3)-G2</f>
+        <v>0.1603709999999996</v>
+      </c>
+      <c r="H8" s="2">
+        <f>(4*H3)-H2</f>
+        <v>1.3939320000000004</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" ref="I8:J8" si="9">(4*I3)-I2</f>
+        <v>1.224869</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="9"/>
+        <v>0.96640800000000038</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2">
+        <v>14.733772</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5.2333980000000002</v>
+      </c>
+      <c r="D10" s="2">
+        <v>5.4729780000000003</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5.2726629999999997</v>
+      </c>
+      <c r="F10" s="2">
+        <v>5.2500390000000001</v>
+      </c>
+      <c r="G10" s="2">
+        <v>5.4408190000000003</v>
+      </c>
+      <c r="H10" s="2">
+        <v>5.7475670000000001</v>
+      </c>
+      <c r="I10" s="2">
+        <v>5.2832689999999998</v>
+      </c>
+      <c r="J10" s="2">
+        <v>5.2502279999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2">
+        <v>14.734521000000001</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2.6211519999999999</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2.7478039999999999</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2.6414279999999999</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2.6484429999999999</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1.3652930000000001</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1.5537190000000001</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1.398846</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1.3482700000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="2">
+        <f>$B11/C11</f>
+        <v>5.6213912813907783</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" ref="D12:F12" si="10">$B11/D11</f>
+        <v>5.3622896684042969</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="10"/>
+        <v>5.5782406334755299</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="10"/>
+        <v>5.5634654021249474</v>
+      </c>
+      <c r="G12" s="2">
+        <f>$B11/G11</f>
+        <v>10.792204310723045</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" ref="H12:J12" si="11">$B11/H11</f>
+        <v>9.4833885664010023</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="11"/>
+        <v>10.533340339108094</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="11"/>
+        <v>10.928464625038012</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="2">
+        <f>C12/2</f>
+        <v>2.8106956406953891</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:F13" si="12">D12/2</f>
+        <v>2.6811448342021484</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="12"/>
+        <v>2.7891203167377649</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="12"/>
+        <v>2.7817327010624737</v>
+      </c>
+      <c r="G13" s="2">
+        <f>G12/4</f>
+        <v>2.6980510776807614</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" ref="H13:J13" si="13">H12/4</f>
+        <v>2.3708471416002506</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="13"/>
+        <v>2.6333350847770234</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="13"/>
+        <v>2.7321161562595031</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2">
+        <f>999999999/B11</f>
+        <v>67867832.215244725</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" ref="C14:J14" si="14">999999999/C11</f>
+        <v>381511640.30166888</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="14"/>
+        <v>363926975.50480312</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="14"/>
+        <v>378583099.36897773</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="14"/>
+        <v>377580336.44673496</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="14"/>
+        <v>732443511.39279258</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="14"/>
+        <v>643617024.05647349</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="14"/>
+        <v>714874974.80065715</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="14"/>
+        <v>741691203.54231715</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="2">
+        <f>(C16/C11)*100</f>
+        <v>0.3397742671924267</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" ref="D15:F15" si="15">(D16/D11)*100</f>
+        <v>0.82356674639091731</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="15"/>
+        <v>0.38588975357269323</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="15"/>
+        <v>1.7688506039208562</v>
+      </c>
+      <c r="G15" s="2">
+        <f>(G16/G11)*100</f>
+        <v>1.4907422802284978</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" ref="H15:J15" si="16">(H16/H11)*100</f>
+        <v>30.076802819557475</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="16"/>
+        <v>22.312320298303057</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="16"/>
+        <v>10.595207191437947</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="2">
+        <f>(2*C11)-C10</f>
+        <v>8.9059999999996364E-3</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" ref="D16:F16" si="17">(2*D11)-D10</f>
+        <v>2.2629999999999484E-2</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="17"/>
+        <v>1.0193000000000119E-2</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="17"/>
+        <v>4.6846999999999639E-2</v>
+      </c>
+      <c r="G16" s="2">
+        <f>(4*G11)-G10</f>
+        <v>2.0353000000000065E-2</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" ref="H16:J16" si="18">(4*H11)-H10</f>
+        <v>0.4673090000000002</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="18"/>
+        <v>0.31211500000000036</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="18"/>
+        <v>0.14285200000000042</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2">
+        <v>7.1340199999999996</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2.5953240000000002</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2.859829</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2.7312249999999998</v>
+      </c>
+      <c r="F21" s="2">
+        <v>2.771916</v>
+      </c>
+      <c r="G21" s="2">
+        <v>2.7294670000000001</v>
+      </c>
+      <c r="H21" s="2">
+        <v>2.864973</v>
+      </c>
+      <c r="I21" s="2">
+        <v>2.7322169999999999</v>
+      </c>
+      <c r="J21" s="2">
+        <v>2.7255579999999999</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2">
+        <v>7.1344130000000003</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1.307447</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1.457263</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1.373394</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1.391788</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.68756899999999999</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.81162800000000002</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.75848300000000002</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0.75479200000000002</v>
+      </c>
+      <c r="M22" s="3"/>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="2">
+        <f>$B22/C22</f>
+        <v>5.4567512105653231</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" ref="D23:F23" si="19">$B22/D22</f>
+        <v>4.8957621239268416</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="19"/>
+        <v>5.1947314463293131</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="19"/>
+        <v>5.1260773910969197</v>
+      </c>
+      <c r="G23" s="2">
+        <f>$B22/G22</f>
+        <v>10.376286598145059</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" ref="H23:J23" si="20">$B22/H22</f>
+        <v>8.7902499667335281</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="20"/>
+        <v>9.4061607181703479</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="20"/>
+        <v>9.4521576805265557</v>
+      </c>
+      <c r="M23" s="3"/>
+      <c r="N23" s="2"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="2">
+        <f>C23/2</f>
+        <v>2.7283756052826615</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" ref="D24:F24" si="21">D23/2</f>
+        <v>2.4478810619634208</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="21"/>
+        <v>2.5973657231646565</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="21"/>
+        <v>2.5630386955484599</v>
+      </c>
+      <c r="G24" s="2">
+        <f>G23/4</f>
+        <v>2.5940716495362648</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" ref="H24:J24" si="22">H23/4</f>
+        <v>2.197562491683382</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="22"/>
+        <v>2.351540179542587</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="22"/>
+        <v>2.3630394201316389</v>
+      </c>
+      <c r="M24" s="3"/>
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="4">
+        <f>499999999/B22</f>
+        <v>70082850.404090703</v>
+      </c>
+      <c r="C25" s="4">
+        <f t="shared" ref="C25:J25" si="23">499999999/C22</f>
+        <v>382424678.78239042</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="23"/>
+        <v>343108964.54517817</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="23"/>
+        <v>364061586.84252298</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="23"/>
+        <v>359250114.96003699</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="23"/>
+        <v>727199741.40777147</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" si="23"/>
+        <v>616045773.43314922</v>
+      </c>
+      <c r="I25" s="4">
+        <f t="shared" si="23"/>
+        <v>659210554.48836684</v>
+      </c>
+      <c r="J25" s="4">
+        <f t="shared" si="23"/>
+        <v>662434152.72021961</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="2">
+        <f>(C27/C22)*100</f>
+        <v>1.4968101957478861</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" ref="D26:F26" si="24">(D27/D22)*100</f>
+        <v>3.7534062142523346</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="24"/>
+        <v>1.1331780974724088</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="24"/>
+        <v>0.83777126976234906</v>
+      </c>
+      <c r="G26" s="2">
+        <f>(G27/G22)*100</f>
+        <v>3.0264598898437618</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" ref="H26:J26" si="25">(H27/H22)*100</f>
+        <v>47.009097764000259</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="25"/>
+        <v>39.778742569049029</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="25"/>
+        <v>38.899458393835673</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="2">
+        <f>(2*C22)-C21</f>
+        <v>1.9569999999999865E-2</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" ref="D27:F27" si="26">(2*D22)-D21</f>
+        <v>5.4696999999999996E-2</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="26"/>
+        <v>1.5563000000000216E-2</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="26"/>
+        <v>1.1660000000000004E-2</v>
+      </c>
+      <c r="G27" s="2">
+        <f>(4*G22)-G21</f>
+        <v>2.0808999999999855E-2</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" ref="H27:J27" si="27">(4*H22)-H21</f>
+        <v>0.38153900000000007</v>
+      </c>
+      <c r="I27" s="2">
+        <f t="shared" si="27"/>
+        <v>0.30171500000000018</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" si="27"/>
+        <v>0.29361000000000015</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2">
+        <v>7.1340199999999996</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2.6131310000000001</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2.7730350000000001</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2.6721490000000001</v>
+      </c>
+      <c r="F29" s="2">
+        <v>2.6420430000000001</v>
+      </c>
+      <c r="G29" s="2">
+        <v>2.7504909999999998</v>
+      </c>
+      <c r="H29" s="2">
+        <v>2.893373</v>
+      </c>
+      <c r="I29" s="2">
+        <v>2.6621809999999999</v>
+      </c>
+      <c r="J29" s="2">
+        <v>2.6540759999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2">
+        <v>7.1344130000000003</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1.3066249999999999</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1.392771</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1.340883</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1.3295870000000001</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0.69048299999999996</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0.84259600000000001</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0.71413400000000005</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0.72159700000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="2">
+        <f>$B30/C30</f>
+        <v>5.4601840619917734</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" ref="D31:F31" si="28">$B30/D30</f>
+        <v>5.1224594710831859</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="28"/>
+        <v>5.3206827143009496</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="28"/>
+        <v>5.365886549733113</v>
+      </c>
+      <c r="G31" s="2">
+        <f>$B30/G30</f>
+        <v>10.33249623814055</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" ref="H31:J31" si="29">$B30/H30</f>
+        <v>8.4671811876628897</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="29"/>
+        <v>9.9903001397496833</v>
+      </c>
+      <c r="J31" s="2">
+        <f t="shared" si="29"/>
+        <v>9.88697708000449</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="2">
+        <f>C31/2</f>
+        <v>2.7300920309958867</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" ref="D32:F32" si="30">D31/2</f>
+        <v>2.5612297355415929</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="30"/>
+        <v>2.6603413571504748</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="30"/>
+        <v>2.6829432748665565</v>
+      </c>
+      <c r="G32" s="2">
+        <f>G31/4</f>
+        <v>2.5831240595351375</v>
+      </c>
+      <c r="H32" s="2">
+        <f t="shared" ref="H32:J32" si="31">H31/4</f>
+        <v>2.1167952969157224</v>
+      </c>
+      <c r="I32" s="2">
+        <f t="shared" si="31"/>
+        <v>2.4975750349374208</v>
+      </c>
+      <c r="J32" s="2">
+        <f t="shared" si="31"/>
+        <v>2.4717442700011225</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="4">
+        <f>499999999/B30</f>
+        <v>70082850.404090703</v>
+      </c>
+      <c r="C33" s="4">
+        <f t="shared" ref="C33:J33" si="32">499999999/C30</f>
+        <v>382665262.79536974</v>
+      </c>
+      <c r="D33" s="4">
+        <f t="shared" si="32"/>
+        <v>358996560.81294054</v>
+      </c>
+      <c r="E33" s="4">
+        <f t="shared" si="32"/>
+        <v>372888610.71398473</v>
+      </c>
+      <c r="F33" s="4">
+        <f t="shared" si="32"/>
+        <v>376056624.35026813</v>
+      </c>
+      <c r="G33" s="4">
+        <f t="shared" si="32"/>
+        <v>724130788.15843403</v>
+      </c>
+      <c r="H33" s="4">
+        <f t="shared" si="32"/>
+        <v>593404192.5193094</v>
+      </c>
+      <c r="I33" s="4">
+        <f t="shared" si="32"/>
+        <v>700148710.1860435</v>
+      </c>
+      <c r="J33" s="4">
+        <f t="shared" si="32"/>
+        <v>692907535.64662814</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="2">
+        <f>(C35/C30)*100</f>
+        <v>9.1074332727261609E-3</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" ref="D34:F34" si="33">(D35/D30)*100</f>
+        <v>0.89799399901346488</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="33"/>
+        <v>0.71721395528170517</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="33"/>
+        <v>1.2884452089257796</v>
+      </c>
+      <c r="G34" s="2">
+        <f>(G35/G30)*100</f>
+        <v>1.6569560727780461</v>
+      </c>
+      <c r="H34" s="2">
+        <f t="shared" ref="H34:J34" si="34">(H35/H30)*100</f>
+        <v>56.612065568789795</v>
+      </c>
+      <c r="I34" s="2">
+        <f t="shared" si="34"/>
+        <v>27.215480568072696</v>
+      </c>
+      <c r="J34" s="2">
+        <f t="shared" si="34"/>
+        <v>32.194147148616231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="2">
+        <f>(2*C30)-C29</f>
+        <v>1.1899999999975819E-4</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" ref="D35:F35" si="35">(2*D30)-D29</f>
+        <v>1.2506999999999824E-2</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="35"/>
+        <v>9.6169999999999867E-3</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="35"/>
+        <v>1.7131000000000007E-2</v>
+      </c>
+      <c r="G35" s="2">
+        <f>(4*G30)-G29</f>
+        <v>1.1441000000000034E-2</v>
+      </c>
+      <c r="H35" s="2">
+        <f t="shared" ref="H35:J35" si="36">(4*H30)-H29</f>
+        <v>0.47701100000000007</v>
+      </c>
+      <c r="I35" s="2">
+        <f t="shared" si="36"/>
+        <v>0.19435500000000028</v>
+      </c>
+      <c r="J35" s="2">
+        <f t="shared" si="36"/>
+        <v>0.2323120000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.75">
+      <c r="A37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="2">
+        <v>7.3837599999999997</v>
+      </c>
+      <c r="C40" s="2">
+        <v>3.0335160000000001</v>
+      </c>
+      <c r="D40" s="2">
+        <v>3.3959489999999999</v>
+      </c>
+      <c r="E40" s="2">
+        <v>3.1448230000000001</v>
+      </c>
+      <c r="F40" s="2">
+        <v>3.205257</v>
+      </c>
+      <c r="G40" s="2">
+        <v>3.1906720000000002</v>
+      </c>
+      <c r="H40" s="2">
+        <v>3.36415</v>
+      </c>
+      <c r="I40" s="2">
+        <v>3.1835599999999999</v>
+      </c>
+      <c r="J40" s="2">
+        <v>3.1742149999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="2">
+        <v>7.3841340000000004</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1.5194780000000001</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1.743034</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1.5815360000000001</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1.61103</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0.80100400000000005</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0.95811400000000002</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0.87909099999999996</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0.88860899999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="2">
+        <f>$B41/C41</f>
+        <v>4.8596518014739267</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" ref="D42:F42" si="37">$B41/D41</f>
+        <v>4.2363683095108877</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="37"/>
+        <v>4.6689635898265989</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" si="37"/>
+        <v>4.5834863410364806</v>
+      </c>
+      <c r="G42" s="2">
+        <f>$B41/G41</f>
+        <v>9.2185981593100657</v>
+      </c>
+      <c r="H42" s="2">
+        <f t="shared" ref="H42:J42" si="38">$B41/H41</f>
+        <v>7.7069471900003554</v>
+      </c>
+      <c r="I42" s="2">
+        <f t="shared" si="38"/>
+        <v>8.3997379110922541</v>
+      </c>
+      <c r="J42" s="2">
+        <f t="shared" si="38"/>
+        <v>8.3097672879748021</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="2">
+        <f>C42/2</f>
+        <v>2.4298259007369634</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" ref="D43:F43" si="39">D42/2</f>
+        <v>2.1181841547554439</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="39"/>
+        <v>2.3344817949132994</v>
+      </c>
+      <c r="F43" s="2">
+        <f t="shared" si="39"/>
+        <v>2.2917431705182403</v>
+      </c>
+      <c r="G43" s="2">
+        <f>G42/4</f>
+        <v>2.3046495398275164</v>
+      </c>
+      <c r="H43" s="2">
+        <f t="shared" ref="H43:J43" si="40">H42/4</f>
+        <v>1.9267367975000889</v>
+      </c>
+      <c r="I43" s="2">
+        <f t="shared" si="40"/>
+        <v>2.0999344777730635</v>
+      </c>
+      <c r="J43" s="2">
+        <f t="shared" si="40"/>
+        <v>2.0774418219937005</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="4">
+        <f>500000001/B41</f>
+        <v>67712747.493477225</v>
+      </c>
+      <c r="C44" s="4">
+        <f t="shared" ref="C44:J44" si="41">500000001/C41</f>
+        <v>329060375.33942574</v>
+      </c>
+      <c r="D44" s="4">
+        <f t="shared" si="41"/>
+        <v>286856137.63127971</v>
+      </c>
+      <c r="E44" s="4">
+        <f t="shared" si="41"/>
+        <v>316148352.61416751</v>
+      </c>
+      <c r="F44" s="4">
+        <f t="shared" si="41"/>
+        <v>310360453.25040501</v>
+      </c>
+      <c r="G44" s="4">
+        <f t="shared" si="41"/>
+        <v>624216609.40519643</v>
+      </c>
+      <c r="H44" s="4">
+        <f t="shared" si="41"/>
+        <v>521858569.02205789</v>
+      </c>
+      <c r="I44" s="4">
+        <f t="shared" si="41"/>
+        <v>568769332.18517768</v>
+      </c>
+      <c r="J44" s="4">
+        <f t="shared" si="41"/>
+        <v>562677174.10019481</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="2">
+        <f>(C46/C41)*100</f>
+        <v>0.35801768765326719</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" ref="D45:F45" si="42">(D46/D41)*100</f>
+        <v>5.1702376430981873</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="42"/>
+        <v>1.1538782550634294</v>
+      </c>
+      <c r="F45" s="2">
+        <f t="shared" si="42"/>
+        <v>1.0429973371073102</v>
+      </c>
+      <c r="G45" s="2">
+        <f>(G46/G41)*100</f>
+        <v>1.6659092838487723</v>
+      </c>
+      <c r="H45" s="2">
+        <f t="shared" ref="H45:J45" si="43">(H46/H41)*100</f>
+        <v>48.877899707132983</v>
+      </c>
+      <c r="I45" s="2">
+        <f t="shared" si="43"/>
+        <v>37.857741689995677</v>
+      </c>
+      <c r="J45" s="2">
+        <f t="shared" si="43"/>
+        <v>42.78833547713338</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="2">
+        <f>(2*C41)-C40</f>
+        <v>5.4400000000001114E-3</v>
+      </c>
+      <c r="D46" s="2">
+        <f t="shared" ref="D46:F46" si="44">(2*D41)-D40</f>
+        <v>9.011900000000006E-2</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="44"/>
+        <v>1.824899999999996E-2</v>
+      </c>
+      <c r="F46" s="2">
+        <f t="shared" si="44"/>
+        <v>1.6802999999999901E-2</v>
+      </c>
+      <c r="G46" s="2">
+        <f>(4*G41)-G40</f>
+        <v>1.3344000000000023E-2</v>
+      </c>
+      <c r="H46" s="2">
+        <f t="shared" ref="H46:J46" si="45">(4*H41)-H40</f>
+        <v>0.46830600000000011</v>
+      </c>
+      <c r="I46" s="2">
+        <f t="shared" si="45"/>
+        <v>0.33280399999999988</v>
+      </c>
+      <c r="J46" s="2">
+        <f t="shared" si="45"/>
+        <v>0.38022100000000014</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="2">
+        <v>7.3837599999999997</v>
+      </c>
+      <c r="C48" s="2">
+        <v>3.030923</v>
+      </c>
+      <c r="D48" s="2">
+        <v>3.1594709999999999</v>
+      </c>
+      <c r="E48" s="2">
+        <v>3.1208740000000001</v>
+      </c>
+      <c r="F48" s="2">
+        <v>3.096546</v>
+      </c>
+      <c r="G48" s="2">
+        <v>3.198645</v>
+      </c>
+      <c r="H48" s="2">
+        <v>3.411324</v>
+      </c>
+      <c r="I48" s="2">
+        <v>3.1093199999999999</v>
+      </c>
+      <c r="J48" s="2">
+        <v>3.0953379999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="2">
+        <v>7.3841340000000004</v>
+      </c>
+      <c r="C49" s="2">
+        <v>1.517525</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1.5815570000000001</v>
+      </c>
+      <c r="E49" s="2">
+        <v>1.5669390000000001</v>
+      </c>
+      <c r="F49" s="2">
+        <v>1.572363</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0.80315199999999998</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0.90829099999999996</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0.80799500000000002</v>
+      </c>
+      <c r="J49" s="2">
+        <v>0.81689500000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="2">
+        <f>$B49/C49</f>
+        <v>4.8659059982537354</v>
+      </c>
+      <c r="D50" s="2">
+        <f t="shared" ref="D50:F50" si="46">$B49/D49</f>
+        <v>4.6689015950737156</v>
+      </c>
+      <c r="E50" s="2">
+        <f t="shared" si="46"/>
+        <v>4.7124578557301851</v>
+      </c>
+      <c r="F50" s="2">
+        <f t="shared" si="46"/>
+        <v>4.6962018312565235</v>
+      </c>
+      <c r="G50" s="2">
+        <f>$B49/G49</f>
+        <v>9.1939433631491934</v>
+      </c>
+      <c r="H50" s="2">
+        <f t="shared" ref="H50:J50" si="47">$B49/H49</f>
+        <v>8.1297007236667547</v>
+      </c>
+      <c r="I50" s="2">
+        <f t="shared" si="47"/>
+        <v>9.1388362551748461</v>
+      </c>
+      <c r="J50" s="2">
+        <f t="shared" si="47"/>
+        <v>9.0392694287515525</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="2">
+        <f>C50/2</f>
+        <v>2.4329529991268677</v>
+      </c>
+      <c r="D51" s="2">
+        <f t="shared" ref="D51:F51" si="48">D50/2</f>
+        <v>2.3344507975368578</v>
+      </c>
+      <c r="E51" s="2">
+        <f t="shared" si="48"/>
+        <v>2.3562289278650925</v>
+      </c>
+      <c r="F51" s="2">
+        <f t="shared" si="48"/>
+        <v>2.3481009156282617</v>
+      </c>
+      <c r="G51" s="2">
+        <f>G50/4</f>
+        <v>2.2984858407872983</v>
+      </c>
+      <c r="H51" s="2">
+        <f t="shared" ref="H51:J51" si="49">H50/4</f>
+        <v>2.0324251809166887</v>
+      </c>
+      <c r="I51" s="2">
+        <f t="shared" si="49"/>
+        <v>2.2847090637937115</v>
+      </c>
+      <c r="J51" s="2">
+        <f t="shared" si="49"/>
+        <v>2.2598173571878881</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" s="4">
+        <f>500000001/B49</f>
+        <v>67712747.493477225</v>
+      </c>
+      <c r="C52" s="4">
+        <f t="shared" ref="C52:J52" si="50">500000001/C49</f>
+        <v>329483864.18675143</v>
+      </c>
+      <c r="D52" s="4">
+        <f t="shared" si="50"/>
+        <v>316144154.77911955</v>
+      </c>
+      <c r="E52" s="4">
+        <f t="shared" si="50"/>
+        <v>319093468.85871112</v>
+      </c>
+      <c r="F52" s="4">
+        <f t="shared" si="50"/>
+        <v>317992728.77827829</v>
+      </c>
+      <c r="G52" s="4">
+        <f t="shared" si="50"/>
+        <v>622547165.41825211</v>
+      </c>
+      <c r="H52" s="4">
+        <f t="shared" si="50"/>
+        <v>550484372.29918611</v>
+      </c>
+      <c r="I52" s="4">
+        <f t="shared" si="50"/>
+        <v>618815711.73088944</v>
+      </c>
+      <c r="J52" s="4">
+        <f t="shared" si="50"/>
+        <v>612073768.35456204</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="2">
+        <f>(C54/C49)*100</f>
+        <v>0.27195598095583212</v>
+      </c>
+      <c r="D53" s="2">
+        <f t="shared" ref="D53:F53" si="51">(D54/D49)*100</f>
+        <v>0.23034263071139927</v>
+      </c>
+      <c r="E53" s="2">
+        <f t="shared" si="51"/>
+        <v>0.82989829214794031</v>
+      </c>
+      <c r="F53" s="2">
+        <f t="shared" si="51"/>
+        <v>3.0641779283791268</v>
+      </c>
+      <c r="G53" s="2">
+        <f>(G54/G49)*100</f>
+        <v>1.7385252106699538</v>
+      </c>
+      <c r="H53" s="2">
+        <f t="shared" ref="H53:J53" si="52">(H54/H49)*100</f>
+        <v>24.423890581322485</v>
+      </c>
+      <c r="I53" s="2">
+        <f t="shared" si="52"/>
+        <v>15.180787009820632</v>
+      </c>
+      <c r="J53" s="2">
+        <f t="shared" si="52"/>
+        <v>21.084961959615399</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="2">
+        <f>(2*C49)-C48</f>
+        <v>4.1269999999999918E-3</v>
+      </c>
+      <c r="D54" s="2">
+        <f t="shared" ref="D54:F54" si="53">(2*D49)-D48</f>
+        <v>3.6430000000002849E-3</v>
+      </c>
+      <c r="E54" s="2">
+        <f t="shared" si="53"/>
+        <v>1.3004000000000016E-2</v>
+      </c>
+      <c r="F54" s="2">
+        <f t="shared" si="53"/>
+        <v>4.817999999999989E-2</v>
+      </c>
+      <c r="G54" s="2">
+        <f>(4*G49)-G48</f>
+        <v>1.3962999999999948E-2</v>
+      </c>
+      <c r="H54" s="2">
+        <f t="shared" ref="H54:J54" si="54">(4*H49)-H48</f>
+        <v>0.22183999999999982</v>
+      </c>
+      <c r="I54" s="2">
+        <f t="shared" si="54"/>
+        <v>0.12266000000000021</v>
+      </c>
+      <c r="J54" s="2">
+        <f t="shared" si="54"/>
+        <v>0.17224200000000023</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="2"/>
+      <c r="B63" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="2">
+        <v>14.733772</v>
+      </c>
+      <c r="C64" s="2">
+        <v>12.63317</v>
+      </c>
+      <c r="D64" s="2">
+        <v>19.968333000000001</v>
+      </c>
+      <c r="E64" s="2">
+        <v>20.068193999999998</v>
+      </c>
+      <c r="F64" s="2">
+        <v>21.105598000000001</v>
+      </c>
+      <c r="G64" s="2">
+        <v>15.481476000000001</v>
+      </c>
+      <c r="H64" s="2">
+        <v>27.786802000000002</v>
+      </c>
+      <c r="I64" s="2">
+        <v>30.361781000000001</v>
+      </c>
+      <c r="J64" s="2">
+        <v>26.717229</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="2">
+        <v>14.734521000000001</v>
+      </c>
+      <c r="C65" s="2">
+        <v>10.266451999999999</v>
+      </c>
+      <c r="D65" s="2">
+        <v>10.127720999999999</v>
+      </c>
+      <c r="E65" s="2">
+        <v>10.234807999999999</v>
+      </c>
+      <c r="F65" s="2">
+        <v>11.592055</v>
+      </c>
+      <c r="G65" s="2">
+        <v>10.203986</v>
+      </c>
+      <c r="H65" s="2">
+        <v>9.8944860000000006</v>
+      </c>
+      <c r="I65" s="2">
+        <v>9.7050630000000009</v>
+      </c>
+      <c r="J65" s="2">
+        <v>9.9219080000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C66" s="2">
+        <f>$B65/C65</f>
+        <v>1.4352106258325663</v>
+      </c>
+      <c r="D66" s="2">
+        <f t="shared" ref="D66:F66" si="55">$B65/D65</f>
+        <v>1.4548703503976859</v>
+      </c>
+      <c r="E66" s="2">
+        <f t="shared" si="55"/>
+        <v>1.43964801293781</v>
+      </c>
+      <c r="F66" s="2">
+        <f t="shared" si="55"/>
+        <v>1.2710879132302253</v>
+      </c>
+      <c r="G66" s="2">
+        <f>$B65/G65</f>
+        <v>1.4439965911360522</v>
+      </c>
+      <c r="H66" s="2">
+        <f t="shared" ref="H66:J66" si="56">$B65/H65</f>
+        <v>1.4891648742542059</v>
+      </c>
+      <c r="I66" s="2">
+        <f t="shared" si="56"/>
+        <v>1.5182303298803934</v>
+      </c>
+      <c r="J66" s="2">
+        <f t="shared" si="56"/>
+        <v>1.4850491457892978</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C67" s="2">
+        <f>C66/2</f>
+        <v>0.71760531291628316</v>
+      </c>
+      <c r="D67" s="2">
+        <f t="shared" ref="D67:F67" si="57">D66/2</f>
+        <v>0.72743517519884293</v>
+      </c>
+      <c r="E67" s="2">
+        <f t="shared" si="57"/>
+        <v>0.71982400646890499</v>
+      </c>
+      <c r="F67" s="2">
+        <f t="shared" si="57"/>
+        <v>0.63554395661511265</v>
+      </c>
+      <c r="G67" s="2">
+        <f>G66/4</f>
+        <v>0.36099914778401304</v>
+      </c>
+      <c r="H67" s="2">
+        <f t="shared" ref="H67:J67" si="58">H66/4</f>
+        <v>0.37229121856355146</v>
+      </c>
+      <c r="I67" s="2">
+        <f t="shared" si="58"/>
+        <v>0.37955758247009835</v>
+      </c>
+      <c r="J67" s="2">
+        <f t="shared" si="58"/>
+        <v>0.37126228644732445</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" s="4">
+        <f>999999999/B65</f>
+        <v>67867832.215244725</v>
+      </c>
+      <c r="C68" s="4">
+        <f t="shared" ref="C68:J68" si="59">999999999/C65</f>
+        <v>97404633.947540984</v>
+      </c>
+      <c r="D68" s="4">
+        <f t="shared" si="59"/>
+        <v>98738896.835724443</v>
+      </c>
+      <c r="E68" s="4">
+        <f t="shared" si="59"/>
+        <v>97705789.791073769</v>
+      </c>
+      <c r="F68" s="4">
+        <f t="shared" si="59"/>
+        <v>86265981.225934491</v>
+      </c>
+      <c r="G68" s="4">
+        <f t="shared" si="59"/>
+        <v>98000918.366606921</v>
+      </c>
+      <c r="H68" s="4">
+        <f t="shared" si="59"/>
+        <v>101066391.82672045</v>
+      </c>
+      <c r="I68" s="4">
+        <f t="shared" si="59"/>
+        <v>103039001.29241818</v>
+      </c>
+      <c r="J68" s="4">
+        <f t="shared" si="59"/>
+        <v>100787066.25782058</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C69" s="2">
+        <f>(C70/C65)*100</f>
+        <v>76.947069932241433</v>
+      </c>
+      <c r="D69" s="2">
+        <f t="shared" ref="D69:F69" si="60">(D70/D65)*100</f>
+        <v>2.8348825959956581</v>
+      </c>
+      <c r="E69" s="2">
+        <f t="shared" si="60"/>
+        <v>3.9221253588733687</v>
+      </c>
+      <c r="F69" s="2">
+        <f t="shared" si="60"/>
+        <v>17.93048773491844</v>
+      </c>
+      <c r="G69" s="2">
+        <f>(G70/G65)*100</f>
+        <v>248.28011328122165</v>
+      </c>
+      <c r="H69" s="2">
+        <f t="shared" ref="H69:J69" si="61">(H70/H65)*100</f>
+        <v>119.16881786481885</v>
+      </c>
+      <c r="I69" s="2">
+        <f t="shared" si="61"/>
+        <v>87.155240517243442</v>
+      </c>
+      <c r="J69" s="2">
+        <f t="shared" si="61"/>
+        <v>130.72488678588837</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70" s="2">
+        <f>(2*C65)-C64</f>
+        <v>7.8997339999999987</v>
+      </c>
+      <c r="D70" s="2">
+        <f t="shared" ref="D70:F70" si="62">(2*D65)-D64</f>
+        <v>0.28710899999999739</v>
+      </c>
+      <c r="E70" s="2">
+        <f t="shared" si="62"/>
+        <v>0.40142200000000017</v>
+      </c>
+      <c r="F70" s="2">
+        <f t="shared" si="62"/>
+        <v>2.0785119999999999</v>
+      </c>
+      <c r="G70" s="2">
+        <f>(4*G65)-G64</f>
+        <v>25.334468000000001</v>
+      </c>
+      <c r="H70" s="2">
+        <f t="shared" ref="H70:J70" si="63">(4*H65)-H64</f>
+        <v>11.791142000000001</v>
+      </c>
+      <c r="I70" s="2">
+        <f t="shared" si="63"/>
+        <v>8.458471000000003</v>
+      </c>
+      <c r="J70" s="2">
+        <f t="shared" si="63"/>
+        <v>12.970403000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="2"/>
+      <c r="B71" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="2">
+        <v>14.733772</v>
+      </c>
+      <c r="C72" s="2">
+        <v>16.630291</v>
+      </c>
+      <c r="D72" s="2">
+        <v>17.230035000000001</v>
+      </c>
+      <c r="E72" s="2">
+        <v>17.710989000000001</v>
+      </c>
+      <c r="F72" s="2">
+        <v>18.362909999999999</v>
+      </c>
+      <c r="G72" s="2">
+        <v>26.941928999999998</v>
+      </c>
+      <c r="H72" s="2">
+        <v>29.201197000000001</v>
+      </c>
+      <c r="I72" s="2">
+        <v>30.831409000000001</v>
+      </c>
+      <c r="J72" s="2">
+        <v>28.465933</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" s="2">
+        <v>14.734521000000001</v>
+      </c>
+      <c r="C73" s="2">
+        <v>8.3245869999999993</v>
+      </c>
+      <c r="D73" s="2">
+        <v>8.6248749999999994</v>
+      </c>
+      <c r="E73" s="2">
+        <v>8.8590619999999998</v>
+      </c>
+      <c r="F73" s="2">
+        <v>9.1843219999999999</v>
+      </c>
+      <c r="G73" s="2">
+        <v>6.899248</v>
+      </c>
+      <c r="H73" s="2">
+        <v>10.724892000000001</v>
+      </c>
+      <c r="I73" s="2">
+        <v>10.927828999999999</v>
+      </c>
+      <c r="J73" s="2">
+        <v>12.049661</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C74" s="2">
+        <f>$B73/C73</f>
+        <v>1.7700002414534202</v>
+      </c>
+      <c r="D74" s="2">
+        <f t="shared" ref="D74:F74" si="64">$B73/D73</f>
+        <v>1.7083750199278254</v>
+      </c>
+      <c r="E74" s="2">
+        <f t="shared" si="64"/>
+        <v>1.6632145705719186</v>
+      </c>
+      <c r="F74" s="2">
+        <f t="shared" si="64"/>
+        <v>1.6043123270286039</v>
+      </c>
+      <c r="G74" s="2">
+        <f>$B73/G73</f>
+        <v>2.135670583228781</v>
+      </c>
+      <c r="H74" s="2">
+        <f t="shared" ref="H74:J74" si="65">$B73/H73</f>
+        <v>1.3738619465818398</v>
+      </c>
+      <c r="I74" s="2">
+        <f t="shared" si="65"/>
+        <v>1.3483484230948344</v>
+      </c>
+      <c r="J74" s="2">
+        <f t="shared" si="65"/>
+        <v>1.2228162269461358</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C75" s="2">
+        <f>C74/2</f>
+        <v>0.88500012072671008</v>
+      </c>
+      <c r="D75" s="2">
+        <f t="shared" ref="D75:F75" si="66">D74/2</f>
+        <v>0.85418750996391268</v>
+      </c>
+      <c r="E75" s="2">
+        <f t="shared" si="66"/>
+        <v>0.83160728528595929</v>
+      </c>
+      <c r="F75" s="2">
+        <f t="shared" si="66"/>
+        <v>0.80215616351430197</v>
+      </c>
+      <c r="G75" s="2">
+        <f>G74/4</f>
+        <v>0.53391764580719525</v>
+      </c>
+      <c r="H75" s="2">
+        <f t="shared" ref="H75:J75" si="67">H74/4</f>
+        <v>0.34346548664545995</v>
+      </c>
+      <c r="I75" s="2">
+        <f t="shared" si="67"/>
+        <v>0.3370871057737086</v>
+      </c>
+      <c r="J75" s="2">
+        <f t="shared" si="67"/>
+        <v>0.30570405673653395</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B76" s="4">
+        <f>999999999/B73</f>
+        <v>67867832.215244725</v>
+      </c>
+      <c r="C76" s="4">
+        <f t="shared" ref="C76:J76" si="68">999999999/C73</f>
+        <v>120126079.40790337</v>
+      </c>
+      <c r="D76" s="4">
+        <f t="shared" si="68"/>
+        <v>115943709.21317701</v>
+      </c>
+      <c r="E76" s="4">
+        <f t="shared" si="68"/>
+        <v>112878767.41352527</v>
+      </c>
+      <c r="F76" s="4">
+        <f t="shared" si="68"/>
+        <v>108881199.83162612</v>
+      </c>
+      <c r="G76" s="4">
+        <f t="shared" si="68"/>
+        <v>144943332.80960476</v>
+      </c>
+      <c r="H76" s="4">
+        <f t="shared" si="68"/>
+        <v>93241032.077525809</v>
+      </c>
+      <c r="I76" s="4">
+        <f t="shared" si="68"/>
+        <v>91509484.54629004</v>
+      </c>
+      <c r="J76" s="4">
+        <f t="shared" si="68"/>
+        <v>82989886.520458952</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C77" s="2">
+        <f>(C78/C73)*100</f>
+        <v>0.22683407597276448</v>
+      </c>
+      <c r="D77" s="2">
+        <f t="shared" ref="D77:F77" si="69">(D78/D73)*100</f>
+        <v>0.22858302294233748</v>
+      </c>
+      <c r="E77" s="2">
+        <f t="shared" si="69"/>
+        <v>8.0539000630067997E-2</v>
+      </c>
+      <c r="F77" s="2">
+        <f t="shared" si="69"/>
+        <v>6.2432480045890706E-2</v>
+      </c>
+      <c r="G77" s="2">
+        <f>(G78/G73)*100</f>
+        <v>9.494701451520541</v>
+      </c>
+      <c r="H77" s="2">
+        <f t="shared" ref="H77:J77" si="70">(H78/H73)*100</f>
+        <v>127.72502510980996</v>
+      </c>
+      <c r="I77" s="2">
+        <f t="shared" si="70"/>
+        <v>117.8633651752786</v>
+      </c>
+      <c r="J77" s="2">
+        <f t="shared" si="70"/>
+        <v>163.76154482686277</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C78" s="2">
+        <f>(2*C73)-C72</f>
+        <v>1.8882999999998873E-2</v>
+      </c>
+      <c r="D78" s="2">
+        <f t="shared" ref="D78:F78" si="71">(2*D73)-D72</f>
+        <v>1.9714999999997929E-2</v>
+      </c>
+      <c r="E78" s="2">
+        <f t="shared" si="71"/>
+        <v>7.1349999999981151E-3</v>
+      </c>
+      <c r="F78" s="2">
+        <f t="shared" si="71"/>
+        <v>5.7340000000003499E-3</v>
+      </c>
+      <c r="G78" s="2">
+        <f>(4*G73)-G72</f>
+        <v>0.65506300000000195</v>
+      </c>
+      <c r="H78" s="2">
+        <f t="shared" ref="H78:J78" si="72">(4*H73)-H72</f>
+        <v>13.698371000000002</v>
+      </c>
+      <c r="I78" s="2">
+        <f t="shared" si="72"/>
+        <v>12.879906999999996</v>
+      </c>
+      <c r="J78" s="2">
+        <f t="shared" si="72"/>
+        <v>19.732711000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="2"/>
+      <c r="B82" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="2">
+        <v>7.1340199999999996</v>
+      </c>
+      <c r="C83" s="2">
+        <v>5.7945070000000003</v>
+      </c>
+      <c r="D83" s="2">
+        <v>9.7944490000000002</v>
+      </c>
+      <c r="E83" s="2">
+        <v>10.409504</v>
+      </c>
+      <c r="F83" s="2">
+        <v>11.013180999999999</v>
+      </c>
+      <c r="G83" s="2">
+        <v>7.4088630000000002</v>
+      </c>
+      <c r="H83" s="2">
+        <v>14.609188</v>
+      </c>
+      <c r="I83" s="2">
+        <v>13.829385</v>
+      </c>
+      <c r="J83" s="2">
+        <v>12.091873</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84" s="2">
+        <v>7.1344130000000003</v>
+      </c>
+      <c r="C84" s="2">
+        <v>4.9049469999999999</v>
+      </c>
+      <c r="D84" s="2">
+        <v>4.9591229999999999</v>
+      </c>
+      <c r="E84" s="2">
+        <v>5.3370329999999999</v>
+      </c>
+      <c r="F84" s="2">
+        <v>6.2701339999999997</v>
+      </c>
+      <c r="G84" s="2">
+        <v>4.9143889999999999</v>
+      </c>
+      <c r="H84" s="2">
+        <v>4.0297869999999998</v>
+      </c>
+      <c r="I84" s="2">
+        <v>4.0448259999999996</v>
+      </c>
+      <c r="J84" s="2">
+        <v>4.7540509999999996</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C85" s="2">
+        <f>$B84/C84</f>
+        <v>1.4545341672397276</v>
+      </c>
+      <c r="D85" s="2">
+        <f t="shared" ref="D85:F85" si="73">$B84/D84</f>
+        <v>1.4386440909007501</v>
+      </c>
+      <c r="E85" s="2">
+        <f t="shared" si="73"/>
+        <v>1.3367751332997193</v>
+      </c>
+      <c r="F85" s="2">
+        <f t="shared" si="73"/>
+        <v>1.137840594794306</v>
+      </c>
+      <c r="G85" s="2">
+        <f>$B84/G84</f>
+        <v>1.4517395753571809</v>
+      </c>
+      <c r="H85" s="2">
+        <f t="shared" ref="H85:J85" si="74">$B84/H84</f>
+        <v>1.7704193794858143</v>
+      </c>
+      <c r="I85" s="2">
+        <f t="shared" si="74"/>
+        <v>1.7638368127578297</v>
+      </c>
+      <c r="J85" s="2">
+        <f t="shared" si="74"/>
+        <v>1.5007018225088458</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C86" s="2">
+        <f>C85/2</f>
+        <v>0.72726708361986381</v>
+      </c>
+      <c r="D86" s="2">
+        <f t="shared" ref="D86:F86" si="75">D85/2</f>
+        <v>0.71932204545037504</v>
+      </c>
+      <c r="E86" s="2">
+        <f t="shared" si="75"/>
+        <v>0.66838756664985965</v>
+      </c>
+      <c r="F86" s="2">
+        <f t="shared" si="75"/>
+        <v>0.568920297397153</v>
+      </c>
+      <c r="G86" s="2">
+        <f>G85/4</f>
+        <v>0.36293489383929523</v>
+      </c>
+      <c r="H86" s="2">
+        <f t="shared" ref="H86:J86" si="76">H85/4</f>
+        <v>0.44260484487145357</v>
+      </c>
+      <c r="I86" s="2">
+        <f t="shared" si="76"/>
+        <v>0.44095920318945742</v>
+      </c>
+      <c r="J86" s="2">
+        <f t="shared" si="76"/>
+        <v>0.37517545562721144</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B87" s="4">
+        <f>499999999/B84</f>
+        <v>70082850.404090703</v>
+      </c>
+      <c r="C87" s="4">
+        <f t="shared" ref="C87:J87" si="77">499999999/C84</f>
+        <v>101937900.45030048</v>
+      </c>
+      <c r="D87" s="4">
+        <f t="shared" si="77"/>
+        <v>100824278.60732634</v>
+      </c>
+      <c r="E87" s="4">
+        <f t="shared" si="77"/>
+        <v>93685011.690952629</v>
+      </c>
+      <c r="F87" s="4">
+        <f t="shared" si="77"/>
+        <v>79743112.188670933</v>
+      </c>
+      <c r="G87" s="4">
+        <f t="shared" si="77"/>
+        <v>101742047.48545547</v>
+      </c>
+      <c r="H87" s="4">
+        <f t="shared" si="77"/>
+        <v>124076036.52500741</v>
+      </c>
+      <c r="I87" s="4">
+        <f t="shared" si="77"/>
+        <v>123614711.48573512</v>
+      </c>
+      <c r="J87" s="4">
+        <f t="shared" si="77"/>
+        <v>105173461.32803372</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C88" s="2">
+        <f>(C89/C84)*100</f>
+        <v>81.86402421881418</v>
+      </c>
+      <c r="D88" s="2">
+        <f t="shared" ref="D88:F88" si="78">(D89/D84)*100</f>
+        <v>2.4963486487429272</v>
+      </c>
+      <c r="E88" s="2">
+        <f t="shared" si="78"/>
+        <v>4.957098822510555</v>
+      </c>
+      <c r="F88" s="2">
+        <f t="shared" si="78"/>
+        <v>24.35493404128205</v>
+      </c>
+      <c r="G88" s="2">
+        <f>(G89/G84)*100</f>
+        <v>249.24142146663604</v>
+      </c>
+      <c r="H88" s="2">
+        <f t="shared" ref="H88:J88" si="79">(H89/H84)*100</f>
+        <v>37.469970497199967</v>
+      </c>
+      <c r="I88" s="2">
+        <f t="shared" si="79"/>
+        <v>58.096911956163211</v>
+      </c>
+      <c r="J88" s="2">
+        <f t="shared" si="79"/>
+        <v>145.65117202150333</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C89" s="2">
+        <f>(2*C84)-C83</f>
+        <v>4.0153869999999996</v>
+      </c>
+      <c r="D89" s="2">
+        <f t="shared" ref="D89:F89" si="80">(2*D84)-D83</f>
+        <v>0.12379699999999971</v>
+      </c>
+      <c r="E89" s="2">
+        <f t="shared" si="80"/>
+        <v>0.26456199999999974</v>
+      </c>
+      <c r="F89" s="2">
+        <f t="shared" si="80"/>
+        <v>1.5270869999999999</v>
+      </c>
+      <c r="G89" s="2">
+        <f>(4*G84)-G83</f>
+        <v>12.248692999999999</v>
+      </c>
+      <c r="H89" s="2">
+        <f t="shared" ref="H89:J89" si="81">(4*H84)-H83</f>
+        <v>1.5099599999999995</v>
+      </c>
+      <c r="I89" s="2">
+        <f t="shared" si="81"/>
+        <v>2.3499189999999981</v>
+      </c>
+      <c r="J89" s="2">
+        <f t="shared" si="81"/>
+        <v>6.9243309999999987</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="2"/>
+      <c r="B90" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" s="2">
+        <v>7.1340199999999996</v>
+      </c>
+      <c r="C91" s="2">
+        <v>7.2204629999999996</v>
+      </c>
+      <c r="D91" s="2">
+        <v>9.4972740000000009</v>
+      </c>
+      <c r="E91" s="2">
+        <v>10.243945999999999</v>
+      </c>
+      <c r="F91" s="2">
+        <v>10.486446000000001</v>
+      </c>
+      <c r="G91" s="2">
+        <v>12.765393</v>
+      </c>
+      <c r="H91" s="2">
+        <v>14.021482000000001</v>
+      </c>
+      <c r="I91" s="2">
+        <v>14.607963</v>
+      </c>
+      <c r="J91" s="2">
+        <v>13.516276</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92" s="2">
+        <v>7.1344130000000003</v>
+      </c>
+      <c r="C92" s="2">
+        <v>3.6122960000000002</v>
+      </c>
+      <c r="D92" s="2">
+        <v>4.776052</v>
+      </c>
+      <c r="E92" s="2">
+        <v>5.1499430000000004</v>
+      </c>
+      <c r="F92" s="2">
+        <v>5.2531239999999997</v>
+      </c>
+      <c r="G92" s="2">
+        <v>3.2517830000000001</v>
+      </c>
+      <c r="H92" s="2">
+        <v>4.9628259999999997</v>
+      </c>
+      <c r="I92" s="2">
+        <v>5.2338050000000003</v>
+      </c>
+      <c r="J92" s="2">
+        <v>5.6542399999999997</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C93" s="2">
+        <f>$B92/C92</f>
+        <v>1.9750355452598569</v>
+      </c>
+      <c r="D93" s="2">
+        <f t="shared" ref="D93:F93" si="82">$B92/D92</f>
+        <v>1.4937888029694819</v>
+      </c>
+      <c r="E93" s="2">
+        <f t="shared" si="82"/>
+        <v>1.3853382454912608</v>
+      </c>
+      <c r="F93" s="2">
+        <f t="shared" si="82"/>
+        <v>1.3581276588940221</v>
+      </c>
+      <c r="G93" s="2">
+        <f>$B92/G92</f>
+        <v>2.1940003376609081</v>
+      </c>
+      <c r="H93" s="2">
+        <f t="shared" ref="H93:J93" si="83">$B92/H92</f>
+        <v>1.4375706502706322</v>
+      </c>
+      <c r="I93" s="2">
+        <f t="shared" si="83"/>
+        <v>1.3631407742550592</v>
+      </c>
+      <c r="J93" s="2">
+        <f t="shared" si="83"/>
+        <v>1.2617810704886954</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C94" s="2">
+        <f>C93/2</f>
+        <v>0.98751777262992846</v>
+      </c>
+      <c r="D94" s="2">
+        <f t="shared" ref="D94:F94" si="84">D93/2</f>
+        <v>0.74689440148474096</v>
+      </c>
+      <c r="E94" s="2">
+        <f t="shared" si="84"/>
+        <v>0.69266912274563042</v>
+      </c>
+      <c r="F94" s="2">
+        <f t="shared" si="84"/>
+        <v>0.67906382944701105</v>
+      </c>
+      <c r="G94" s="2">
+        <f>G93/4</f>
+        <v>0.54850008441522702</v>
+      </c>
+      <c r="H94" s="2">
+        <f t="shared" ref="H94:J94" si="85">H93/4</f>
+        <v>0.35939266256765806</v>
+      </c>
+      <c r="I94" s="2">
+        <f t="shared" si="85"/>
+        <v>0.3407851935637648</v>
+      </c>
+      <c r="J94" s="2">
+        <f t="shared" si="85"/>
+        <v>0.31544526762217384</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B95" s="4">
+        <f>499999999/B92</f>
+        <v>70082850.404090703</v>
+      </c>
+      <c r="C95" s="4">
+        <f t="shared" ref="C95:J95" si="86">499999999/C92</f>
+        <v>138416120.66120827</v>
+      </c>
+      <c r="D95" s="4">
+        <f t="shared" si="86"/>
+        <v>104688977.21381593</v>
+      </c>
+      <c r="E95" s="4">
+        <f t="shared" si="86"/>
+        <v>97088453.017829508</v>
+      </c>
+      <c r="F95" s="4">
+        <f t="shared" si="86"/>
+        <v>95181457.547927678</v>
+      </c>
+      <c r="G95" s="4">
+        <f t="shared" si="86"/>
+        <v>153761797.45081389</v>
+      </c>
+      <c r="H95" s="4">
+        <f t="shared" si="86"/>
+        <v>100749048.82822812</v>
+      </c>
+      <c r="I95" s="4">
+        <f t="shared" si="86"/>
+        <v>95532790.961833686</v>
+      </c>
+      <c r="J95" s="4">
+        <f t="shared" si="86"/>
+        <v>88429214.005772665</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C96" s="2">
+        <f>(C97/C92)*100</f>
+        <v>0.11430403267065364</v>
+      </c>
+      <c r="D96" s="2">
+        <f t="shared" ref="D96:F96" si="87">(D97/D92)*100</f>
+        <v>1.1480193264227243</v>
+      </c>
+      <c r="E96" s="2">
+        <f t="shared" si="87"/>
+        <v>1.0862256145359557</v>
+      </c>
+      <c r="F96" s="2">
+        <f t="shared" si="87"/>
+        <v>0.37695664522669831</v>
+      </c>
+      <c r="G96" s="2">
+        <f>(G97/G92)*100</f>
+        <v>7.434044645660574</v>
+      </c>
+      <c r="H96" s="2">
+        <f t="shared" ref="H96:J96" si="88">(H97/H92)*100</f>
+        <v>117.46980450251527</v>
+      </c>
+      <c r="I96" s="2">
+        <f t="shared" si="88"/>
+        <v>120.89210431034402</v>
+      </c>
+      <c r="J96" s="2">
+        <f t="shared" si="88"/>
+        <v>160.95326692888875</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C97" s="2">
+        <f>(2*C92)-C91</f>
+        <v>4.1290000000007154E-3</v>
+      </c>
+      <c r="D97" s="2">
+        <f t="shared" ref="D97:F97" si="89">(2*D92)-D91</f>
+        <v>5.4829999999999046E-2</v>
+      </c>
+      <c r="E97" s="2">
+        <f t="shared" si="89"/>
+        <v>5.5940000000001433E-2</v>
+      </c>
+      <c r="F97" s="2">
+        <f t="shared" si="89"/>
+        <v>1.9801999999998543E-2</v>
+      </c>
+      <c r="G97" s="2">
+        <f>(4*G92)-G91</f>
+        <v>0.24173900000000081</v>
+      </c>
+      <c r="H97" s="2">
+        <f t="shared" ref="H97:J97" si="90">(4*H92)-H91</f>
+        <v>5.8298219999999983</v>
+      </c>
+      <c r="I97" s="2">
+        <f t="shared" si="90"/>
+        <v>6.3272570000000012</v>
+      </c>
+      <c r="J97" s="2">
+        <f t="shared" si="90"/>
+        <v>9.1006839999999993</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" s="3"/>
+      <c r="B101" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" s="2">
+        <v>7.3837599999999997</v>
+      </c>
+      <c r="C102" s="2">
+        <v>5.9520210000000002</v>
+      </c>
+      <c r="D102" s="2">
+        <v>8.450882</v>
+      </c>
+      <c r="E102" s="2">
+        <v>10.681932</v>
+      </c>
+      <c r="F102" s="2">
+        <v>9.2570119999999996</v>
+      </c>
+      <c r="G102" s="2">
+        <v>7.4783049999999998</v>
+      </c>
+      <c r="H102" s="2">
+        <v>14.250754000000001</v>
+      </c>
+      <c r="I102" s="2">
+        <v>14.380157000000001</v>
+      </c>
+      <c r="J102" s="2">
+        <v>12.578775</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B103" s="2">
+        <v>7.3841340000000004</v>
+      </c>
+      <c r="C103" s="2">
+        <v>5.0944710000000004</v>
+      </c>
+      <c r="D103" s="2">
+        <v>4.3002269999999996</v>
+      </c>
+      <c r="E103" s="2">
+        <v>5.4671789999999998</v>
+      </c>
+      <c r="F103" s="2">
+        <v>5.0851980000000001</v>
+      </c>
+      <c r="G103" s="2">
+        <v>5.0904160000000003</v>
+      </c>
+      <c r="H103" s="2">
+        <v>5.2090759999999996</v>
+      </c>
+      <c r="I103" s="2">
+        <v>4.131621</v>
+      </c>
+      <c r="J103" s="2">
+        <v>4.7687679999999997</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C104" s="2">
+        <f>$B103/C103</f>
+        <v>1.44944077608843</v>
+      </c>
+      <c r="D104" s="2">
+        <f t="shared" ref="D104:F104" si="91">$B103/D103</f>
+        <v>1.7171498155795033</v>
+      </c>
+      <c r="E104" s="2">
+        <f t="shared" si="91"/>
+        <v>1.3506296391612569</v>
+      </c>
+      <c r="F104" s="2">
+        <f t="shared" si="91"/>
+        <v>1.4520838716604545</v>
+      </c>
+      <c r="G104" s="2">
+        <f>$B103/G103</f>
+        <v>1.4505953933823876</v>
+      </c>
+      <c r="H104" s="2">
+        <f t="shared" ref="H104:J104" si="92">$B103/H103</f>
+        <v>1.4175515964827545</v>
+      </c>
+      <c r="I104" s="2">
+        <f t="shared" si="92"/>
+        <v>1.7872244332188263</v>
+      </c>
+      <c r="J104" s="2">
+        <f t="shared" si="92"/>
+        <v>1.5484364095716128</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C105" s="2">
+        <f>C104/2</f>
+        <v>0.72472038804421501</v>
+      </c>
+      <c r="D105" s="2">
+        <f t="shared" ref="D105:F105" si="93">D104/2</f>
+        <v>0.85857490778975165</v>
+      </c>
+      <c r="E105" s="2">
+        <f t="shared" si="93"/>
+        <v>0.67531481958062844</v>
+      </c>
+      <c r="F105" s="2">
+        <f t="shared" si="93"/>
+        <v>0.72604193583022725</v>
+      </c>
+      <c r="G105" s="2">
+        <f>G104/4</f>
+        <v>0.36264884834559691</v>
+      </c>
+      <c r="H105" s="2">
+        <f t="shared" ref="H105:J105" si="94">H104/4</f>
+        <v>0.35438789912068863</v>
+      </c>
+      <c r="I105" s="2">
+        <f t="shared" si="94"/>
+        <v>0.44680610830470657</v>
+      </c>
+      <c r="J105" s="2">
+        <f t="shared" si="94"/>
+        <v>0.38710910239290319</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B106" s="4">
+        <f>500000001/B103</f>
+        <v>67712747.493477225</v>
+      </c>
+      <c r="C106" s="4">
+        <f t="shared" ref="C106:J106" si="95">500000001/C103</f>
+        <v>98145617.278025523</v>
+      </c>
+      <c r="D106" s="4">
+        <f t="shared" si="95"/>
+        <v>116272931.8708059</v>
+      </c>
+      <c r="E106" s="4">
+        <f t="shared" si="95"/>
+        <v>91454843.713732436</v>
+      </c>
+      <c r="F106" s="4">
+        <f t="shared" si="95"/>
+        <v>98324588.541095152</v>
+      </c>
+      <c r="G106" s="4">
+        <f t="shared" si="95"/>
+        <v>98223799.587302878</v>
+      </c>
+      <c r="H106" s="4">
+        <f t="shared" si="95"/>
+        <v>95986313.311612278</v>
+      </c>
+      <c r="I106" s="4">
+        <f t="shared" si="95"/>
+        <v>121017876.76071934</v>
+      </c>
+      <c r="J106" s="4">
+        <f t="shared" si="95"/>
+        <v>104848883.6110291</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C107" s="2">
+        <f>(C108/C103)*100</f>
+        <v>83.167045214311756</v>
+      </c>
+      <c r="D107" s="2">
+        <f t="shared" ref="D107:F107" si="96">(D108/D103)*100</f>
+        <v>3.4782349861995465</v>
+      </c>
+      <c r="E107" s="2">
+        <f t="shared" si="96"/>
+        <v>4.6171160666222901</v>
+      </c>
+      <c r="F107" s="2">
+        <f t="shared" si="96"/>
+        <v>17.9616211600807</v>
+      </c>
+      <c r="G107" s="2">
+        <f>(G108/G103)*100</f>
+        <v>253.09049397927402</v>
+      </c>
+      <c r="H107" s="2">
+        <f t="shared" ref="H107:J107" si="97">(H108/H103)*100</f>
+        <v>126.42453287300854</v>
+      </c>
+      <c r="I107" s="2">
+        <f t="shared" si="97"/>
+        <v>51.948787170943298</v>
+      </c>
+      <c r="J107" s="2">
+        <f t="shared" si="97"/>
+        <v>136.22589733868369</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C108" s="2">
+        <f>(2*C103)-C102</f>
+        <v>4.2369210000000006</v>
+      </c>
+      <c r="D108" s="2">
+        <f t="shared" ref="D108:F108" si="98">(2*D103)-D102</f>
+        <v>0.14957199999999915</v>
+      </c>
+      <c r="E108" s="2">
+        <f t="shared" si="98"/>
+        <v>0.25242599999999982</v>
+      </c>
+      <c r="F108" s="2">
+        <f t="shared" si="98"/>
+        <v>0.91338400000000064</v>
+      </c>
+      <c r="G108" s="2">
+        <f>(4*G103)-G102</f>
+        <v>12.883359000000002</v>
+      </c>
+      <c r="H108" s="2">
+        <f t="shared" ref="H108:J108" si="99">(4*H103)-H102</f>
+        <v>6.5855499999999978</v>
+      </c>
+      <c r="I108" s="2">
+        <f t="shared" si="99"/>
+        <v>2.1463269999999994</v>
+      </c>
+      <c r="J108" s="2">
+        <f t="shared" si="99"/>
+        <v>6.4962969999999984</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" s="3"/>
+      <c r="B109" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" s="2">
+        <v>7.3837599999999997</v>
+      </c>
+      <c r="C110" s="2">
+        <v>7.5141749999999998</v>
+      </c>
+      <c r="D110" s="2">
+        <v>9.8432379999999995</v>
+      </c>
+      <c r="E110" s="2">
+        <v>8.7484470000000005</v>
+      </c>
+      <c r="F110" s="2">
+        <v>11.127268000000001</v>
+      </c>
+      <c r="G110" s="2">
+        <v>13.071332</v>
+      </c>
+      <c r="H110" s="2">
+        <v>14.049201999999999</v>
+      </c>
+      <c r="I110" s="2">
+        <v>15.116061999999999</v>
+      </c>
+      <c r="J110" s="2">
+        <v>13.518476</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B111" s="2">
+        <v>7.3841340000000004</v>
+      </c>
+      <c r="C111" s="2">
+        <v>3.758092</v>
+      </c>
+      <c r="D111" s="2">
+        <v>4.9424380000000001</v>
+      </c>
+      <c r="E111" s="2">
+        <v>4.3798399999999997</v>
+      </c>
+      <c r="F111" s="2">
+        <v>5.612501</v>
+      </c>
+      <c r="G111" s="2">
+        <v>3.2876289999999999</v>
+      </c>
+      <c r="H111" s="2">
+        <v>5.2243250000000003</v>
+      </c>
+      <c r="I111" s="2">
+        <v>5.3689710000000002</v>
+      </c>
+      <c r="J111" s="2">
+        <v>5.8591309999999996</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C112" s="2">
+        <f>$B111/C111</f>
+        <v>1.9648624887309838</v>
+      </c>
+      <c r="D112" s="2">
+        <f t="shared" ref="D112:F112" si="100">$B111/D111</f>
+        <v>1.4940266322005455</v>
+      </c>
+      <c r="E112" s="2">
+        <f t="shared" si="100"/>
+        <v>1.6859369292028934</v>
+      </c>
+      <c r="F112" s="2">
+        <f t="shared" si="100"/>
+        <v>1.3156583847379271</v>
+      </c>
+      <c r="G112" s="2">
+        <f>$B111/G111</f>
+        <v>2.2460362772076778</v>
+      </c>
+      <c r="H112" s="2">
+        <f t="shared" ref="H112:J112" si="101">$B111/H111</f>
+        <v>1.413413981710556</v>
+      </c>
+      <c r="I112" s="2">
+        <f t="shared" si="101"/>
+        <v>1.3753350502358832</v>
+      </c>
+      <c r="J112" s="2">
+        <f t="shared" si="101"/>
+        <v>1.2602780173373835</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C113" s="2">
+        <f>C112/2</f>
+        <v>0.9824312443654919</v>
+      </c>
+      <c r="D113" s="2">
+        <f t="shared" ref="D113:F113" si="102">D112/2</f>
+        <v>0.74701331610027277</v>
+      </c>
+      <c r="E113" s="2">
+        <f t="shared" si="102"/>
+        <v>0.8429684646014467</v>
+      </c>
+      <c r="F113" s="2">
+        <f t="shared" si="102"/>
+        <v>0.65782919236896353</v>
+      </c>
+      <c r="G113" s="2">
+        <f>G112/4</f>
+        <v>0.56150906930191946</v>
+      </c>
+      <c r="H113" s="2">
+        <f t="shared" ref="H113:J113" si="103">H112/4</f>
+        <v>0.353353495427639</v>
+      </c>
+      <c r="I113" s="2">
+        <f t="shared" si="103"/>
+        <v>0.3438337625589708</v>
+      </c>
+      <c r="J113" s="2">
+        <f t="shared" si="103"/>
+        <v>0.31506950433434588</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B114" s="4">
+        <f>500000001/B111</f>
+        <v>67712747.493477225</v>
+      </c>
+      <c r="C114" s="4">
+        <f t="shared" ref="C114:J114" si="104">500000001/C111</f>
+        <v>133046237.55884635</v>
+      </c>
+      <c r="D114" s="4">
+        <f t="shared" si="104"/>
+        <v>101164648.09472571</v>
+      </c>
+      <c r="E114" s="4">
+        <f t="shared" si="104"/>
+        <v>114159421.57704392</v>
+      </c>
+      <c r="F114" s="4">
+        <f t="shared" si="104"/>
+        <v>89086843.993435368</v>
+      </c>
+      <c r="G114" s="4">
+        <f t="shared" si="104"/>
+        <v>152085287.2997531</v>
+      </c>
+      <c r="H114" s="4">
+        <f t="shared" si="104"/>
+        <v>95706144.047317117</v>
+      </c>
+      <c r="I114" s="4">
+        <f t="shared" si="104"/>
+        <v>93127714.975551173</v>
+      </c>
+      <c r="J114" s="4">
+        <f t="shared" si="104"/>
+        <v>85336887.15954636</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C115" s="2">
+        <f>(C116/C111)*100</f>
+        <v>5.345797814423249E-2</v>
+      </c>
+      <c r="D115" s="2">
+        <f t="shared" ref="D115:F115" si="105">(D116/D111)*100</f>
+        <v>0.84245872178873527</v>
+      </c>
+      <c r="E115" s="2">
+        <f t="shared" si="105"/>
+        <v>0.25647055600202151</v>
+      </c>
+      <c r="F115" s="2">
+        <f t="shared" si="105"/>
+        <v>1.7413627186881411</v>
+      </c>
+      <c r="G115" s="2">
+        <f>(G116/G111)*100</f>
+        <v>2.4085442730916324</v>
+      </c>
+      <c r="H115" s="2">
+        <f t="shared" ref="H115:J115" si="106">(H116/H111)*100</f>
+        <v>131.08101046546685</v>
+      </c>
+      <c r="I115" s="2">
+        <f t="shared" si="106"/>
+        <v>118.45513786533772</v>
+      </c>
+      <c r="J115" s="2">
+        <f t="shared" si="106"/>
+        <v>169.27506826524274</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C116" s="2">
+        <f>(2*C111)-C110</f>
+        <v>2.0090000000001496E-3</v>
+      </c>
+      <c r="D116" s="2">
+        <f t="shared" ref="D116:F116" si="107">(2*D111)-D110</f>
+        <v>4.163800000000073E-2</v>
+      </c>
+      <c r="E116" s="2">
+        <f t="shared" si="107"/>
+        <v>1.1232999999998938E-2</v>
+      </c>
+      <c r="F116" s="2">
+        <f t="shared" si="107"/>
+        <v>9.7733999999999099E-2</v>
+      </c>
+      <c r="G116" s="2">
+        <f>(4*G111)-G110</f>
+        <v>7.9183999999999699E-2</v>
+      </c>
+      <c r="H116" s="2">
+        <f t="shared" ref="H116:J116" si="108">(4*H111)-H110</f>
+        <v>6.848098000000002</v>
+      </c>
+      <c r="I116" s="2">
+        <f t="shared" si="108"/>
+        <v>6.3598220000000012</v>
+      </c>
+      <c r="J116" s="2">
+        <f t="shared" si="108"/>
+        <v>9.9180479999999989</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>